--- a/Backend/archivoJugadores.xlsx
+++ b/Backend/archivoJugadores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armando Oyos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicaciones</t>
   </si>
 </sst>
 </file>
@@ -206,13 +212,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
   </cols>
@@ -372,7 +378,33 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>18578</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>42343</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>42463</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
